--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H2">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I2">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J2">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N2">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P2">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q2">
-        <v>1603.221677256861</v>
+        <v>104.9294877957993</v>
       </c>
       <c r="R2">
-        <v>1603.221677256861</v>
+        <v>944.365390162194</v>
       </c>
       <c r="S2">
-        <v>0.5550056454641624</v>
+        <v>0.03349823107980631</v>
       </c>
       <c r="T2">
-        <v>0.5550056454641624</v>
+        <v>0.03349823107980631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H3">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I3">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J3">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N3">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P3">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q3">
-        <v>333.3192618046017</v>
+        <v>21.81332711715111</v>
       </c>
       <c r="R3">
-        <v>333.3192618046017</v>
+        <v>196.31994405436</v>
       </c>
       <c r="S3">
-        <v>0.1153889537971</v>
+        <v>0.006963799097273261</v>
       </c>
       <c r="T3">
-        <v>0.1153889537971</v>
+        <v>0.00696379909727326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H4">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I4">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J4">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N4">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P4">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q4">
-        <v>353.0755622351971</v>
+        <v>22.98748668521511</v>
       </c>
       <c r="R4">
-        <v>353.0755622351971</v>
+        <v>206.887380166936</v>
       </c>
       <c r="S4">
-        <v>0.1222282190266143</v>
+        <v>0.007338643855994633</v>
       </c>
       <c r="T4">
-        <v>0.1222282190266143</v>
+        <v>0.007338643855994632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H5">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I5">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J5">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N5">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P5">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q5">
-        <v>357.352066040036</v>
+        <v>23.83354834274944</v>
       </c>
       <c r="R5">
-        <v>357.352066040036</v>
+        <v>214.501935084745</v>
       </c>
       <c r="S5">
-        <v>0.1237086654228954</v>
+        <v>0.007608744944899249</v>
       </c>
       <c r="T5">
-        <v>0.1237086654228954</v>
+        <v>0.007608744944899248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H6">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I6">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J6">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N6">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P6">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q6">
-        <v>152.7112056029837</v>
+        <v>10.67206310322911</v>
       </c>
       <c r="R6">
-        <v>152.7112056029837</v>
+        <v>96.04856792906199</v>
       </c>
       <c r="S6">
-        <v>0.0528657904503341</v>
+        <v>0.003407004488823544</v>
       </c>
       <c r="T6">
-        <v>0.0528657904503341</v>
+        <v>0.003407004488823543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H7">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I7">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J7">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N7">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P7">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q7">
-        <v>18.46719609443549</v>
+        <v>1621.298879566175</v>
       </c>
       <c r="R7">
-        <v>18.46719609443549</v>
+        <v>14591.68991609558</v>
       </c>
       <c r="S7">
-        <v>0.006393001188608131</v>
+        <v>0.517591819592519</v>
       </c>
       <c r="T7">
-        <v>0.006393001188608131</v>
+        <v>0.517591819592519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H8">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I8">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J8">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N8">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P8">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q8">
-        <v>3.839439209885298</v>
+        <v>337.0446531052577</v>
       </c>
       <c r="R8">
-        <v>3.839439209885298</v>
+        <v>3033.401877947319</v>
       </c>
       <c r="S8">
-        <v>0.001329142729999028</v>
+        <v>0.1075998740783434</v>
       </c>
       <c r="T8">
-        <v>0.001329142729999028</v>
+        <v>0.1075998740783434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H9">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I9">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J9">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N9">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P9">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q9">
-        <v>4.067008160160869</v>
+        <v>355.1869659300257</v>
       </c>
       <c r="R9">
-        <v>4.067008160160869</v>
+        <v>3196.682693370231</v>
       </c>
       <c r="S9">
-        <v>0.001407922884937676</v>
+        <v>0.1133917196318918</v>
       </c>
       <c r="T9">
-        <v>0.001407922884937676</v>
+        <v>0.1133917196318918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H10">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I10">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J10">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N10">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P10">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q10">
-        <v>4.11626836882876</v>
+        <v>368.259733616396</v>
       </c>
       <c r="R10">
-        <v>4.11626836882876</v>
+        <v>3314.337602547564</v>
       </c>
       <c r="S10">
-        <v>0.001424975856647865</v>
+        <v>0.1175651374385514</v>
       </c>
       <c r="T10">
-        <v>0.001424975856647865</v>
+        <v>0.1175651374385514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H11">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I11">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J11">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6268334146096</v>
+        <v>14.67461933333333</v>
       </c>
       <c r="N11">
-        <v>13.6268334146096</v>
+        <v>44.023858</v>
       </c>
       <c r="O11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="P11">
-        <v>0.05454595453344868</v>
+        <v>0.05792607384137975</v>
       </c>
       <c r="Q11">
-        <v>1.759050429328822</v>
+        <v>164.8974403229437</v>
       </c>
       <c r="R11">
-        <v>1.759050429328822</v>
+        <v>1484.076962906494</v>
       </c>
       <c r="S11">
-        <v>0.0006089506727504407</v>
+        <v>0.05264270965618565</v>
       </c>
       <c r="T11">
-        <v>0.0006089506727504407</v>
+        <v>0.05264270965618565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H12">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I12">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J12">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.059801253009</v>
+        <v>144.283282</v>
       </c>
       <c r="N12">
-        <v>143.059801253009</v>
+        <v>432.849846</v>
       </c>
       <c r="O12">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="P12">
-        <v>0.5726446619905637</v>
+        <v>0.5695387292414458</v>
       </c>
       <c r="Q12">
-        <v>32.4858958096446</v>
+        <v>18.70772224969267</v>
       </c>
       <c r="R12">
-        <v>32.4858958096446</v>
+        <v>168.369500247234</v>
       </c>
       <c r="S12">
-        <v>0.01124601533779328</v>
+        <v>0.005972349775656931</v>
       </c>
       <c r="T12">
-        <v>0.01124601533779328</v>
+        <v>0.005972349775656931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H13">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I13">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J13">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.7429781695287</v>
+        <v>29.99441333333333</v>
       </c>
       <c r="N13">
-        <v>29.7429781695287</v>
+        <v>89.98324</v>
       </c>
       <c r="O13">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="P13">
-        <v>0.1190562095802173</v>
+        <v>0.118398887365269</v>
       </c>
       <c r="Q13">
-        <v>6.754009731741609</v>
+        <v>3.889065634662221</v>
       </c>
       <c r="R13">
-        <v>6.754009731741609</v>
+        <v>35.00159071195999</v>
       </c>
       <c r="S13">
-        <v>0.002338113053118303</v>
+        <v>0.001241565379295257</v>
       </c>
       <c r="T13">
-        <v>0.002338113053118303</v>
+        <v>0.001241565379295257</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H14">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I14">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J14">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.5058862272164</v>
+        <v>31.60894133333333</v>
       </c>
       <c r="N14">
-        <v>31.5058862272164</v>
+        <v>94.826824</v>
       </c>
       <c r="O14">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="P14">
-        <v>0.1261128382066588</v>
+        <v>0.1247720181445143</v>
       </c>
       <c r="Q14">
-        <v>7.15432936718372</v>
+        <v>4.098404796966221</v>
       </c>
       <c r="R14">
-        <v>7.15432936718372</v>
+        <v>36.885643172696</v>
       </c>
       <c r="S14">
-        <v>0.002476696295106823</v>
+        <v>0.0013083958935789</v>
       </c>
       <c r="T14">
-        <v>0.002476696295106823</v>
+        <v>0.0013083958935789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H15">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I15">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J15">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.8874902143985</v>
+        <v>32.77231833333333</v>
       </c>
       <c r="N15">
-        <v>31.8874902143985</v>
+        <v>98.31695499999999</v>
       </c>
       <c r="O15">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="P15">
-        <v>0.1276403356891115</v>
+        <v>0.1293642914073912</v>
       </c>
       <c r="Q15">
-        <v>7.240983670206401</v>
+        <v>4.249247870993888</v>
       </c>
       <c r="R15">
-        <v>7.240983670206401</v>
+        <v>38.243230838945</v>
       </c>
       <c r="S15">
-        <v>0.002506694409568224</v>
+        <v>0.001356551814823847</v>
       </c>
       <c r="T15">
-        <v>0.002506694409568224</v>
+        <v>0.001356551814823847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1296596666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.388979</v>
+      </c>
+      <c r="I16">
+        <v>0.0104862926242283</v>
+      </c>
+      <c r="J16">
+        <v>0.0104862926242283</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.67461933333333</v>
+      </c>
+      <c r="N16">
+        <v>44.023858</v>
+      </c>
+      <c r="O16">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="P16">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="Q16">
+        <v>1.902706251220222</v>
+      </c>
+      <c r="R16">
+        <v>17.124356260982</v>
+      </c>
+      <c r="S16">
+        <v>0.0006074297608733642</v>
+      </c>
+      <c r="T16">
+        <v>0.0006074297608733642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.067999</v>
+      </c>
+      <c r="I17">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J17">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>144.283282</v>
+      </c>
+      <c r="N17">
+        <v>432.849846</v>
+      </c>
+      <c r="O17">
+        <v>0.5695387292414458</v>
+      </c>
+      <c r="P17">
+        <v>0.5695387292414458</v>
+      </c>
+      <c r="Q17">
+        <v>3.270372964239334</v>
+      </c>
+      <c r="R17">
+        <v>29.433356678154</v>
+      </c>
+      <c r="S17">
+        <v>0.001044050738972787</v>
+      </c>
+      <c r="T17">
+        <v>0.001044050738972787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.067999</v>
+      </c>
+      <c r="I18">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J18">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.99441333333333</v>
+      </c>
+      <c r="N18">
+        <v>89.98324</v>
+      </c>
+      <c r="O18">
+        <v>0.118398887365269</v>
+      </c>
+      <c r="P18">
+        <v>0.118398887365269</v>
+      </c>
+      <c r="Q18">
+        <v>0.679863370751111</v>
+      </c>
+      <c r="R18">
+        <v>6.11877033676</v>
+      </c>
+      <c r="S18">
+        <v>0.000217043090312583</v>
+      </c>
+      <c r="T18">
+        <v>0.000217043090312583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.067999</v>
+      </c>
+      <c r="I19">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J19">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.60894133333333</v>
+      </c>
+      <c r="N19">
+        <v>94.826824</v>
+      </c>
+      <c r="O19">
+        <v>0.1247720181445143</v>
+      </c>
+      <c r="P19">
+        <v>0.1247720181445143</v>
+      </c>
+      <c r="Q19">
+        <v>0.7164588005751111</v>
+      </c>
+      <c r="R19">
+        <v>6.448129205176</v>
+      </c>
+      <c r="S19">
+        <v>0.0002287260041479659</v>
+      </c>
+      <c r="T19">
+        <v>0.0002287260041479659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.067999</v>
+      </c>
+      <c r="I20">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J20">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>32.77231833333333</v>
+      </c>
+      <c r="N20">
+        <v>98.31695499999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1293642914073912</v>
+      </c>
+      <c r="P20">
+        <v>0.1293642914073912</v>
+      </c>
+      <c r="Q20">
+        <v>0.7428282914494444</v>
+      </c>
+      <c r="R20">
+        <v>6.685454623045</v>
+      </c>
+      <c r="S20">
+        <v>0.0002371443364711379</v>
+      </c>
+      <c r="T20">
+        <v>0.0002371443364711379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.067999</v>
+      </c>
+      <c r="I21">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J21">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.67461933333333</v>
+      </c>
+      <c r="N21">
+        <v>44.023858</v>
+      </c>
+      <c r="O21">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="P21">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="Q21">
+        <v>0.3326198133491111</v>
+      </c>
+      <c r="R21">
+        <v>2.993578320142</v>
+      </c>
+      <c r="S21">
+        <v>0.0001061872654041167</v>
+      </c>
+      <c r="T21">
+        <v>0.0001061872654041167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.744584</v>
+      </c>
+      <c r="I22">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J22">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>144.283282</v>
+      </c>
+      <c r="N22">
+        <v>432.849846</v>
+      </c>
+      <c r="O22">
+        <v>0.5695387292414458</v>
+      </c>
+      <c r="P22">
+        <v>0.5695387292414458</v>
+      </c>
+      <c r="Q22">
+        <v>35.81034108156267</v>
+      </c>
+      <c r="R22">
+        <v>322.293069734064</v>
+      </c>
+      <c r="S22">
+        <v>0.01143227805449071</v>
+      </c>
+      <c r="T22">
+        <v>0.01143227805449071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.744584</v>
+      </c>
+      <c r="I23">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J23">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>29.99441333333333</v>
+      </c>
+      <c r="N23">
+        <v>89.98324</v>
+      </c>
+      <c r="O23">
+        <v>0.118398887365269</v>
+      </c>
+      <c r="P23">
+        <v>0.118398887365269</v>
+      </c>
+      <c r="Q23">
+        <v>7.444453419128888</v>
+      </c>
+      <c r="R23">
+        <v>67.00008077216</v>
+      </c>
+      <c r="S23">
+        <v>0.002376605720044475</v>
+      </c>
+      <c r="T23">
+        <v>0.002376605720044475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.227079134215988</v>
-      </c>
-      <c r="H16">
-        <v>0.227079134215988</v>
-      </c>
-      <c r="I16">
-        <v>0.01963873250595078</v>
-      </c>
-      <c r="J16">
-        <v>0.01963873250595078</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.6268334146096</v>
-      </c>
-      <c r="N16">
-        <v>13.6268334146096</v>
-      </c>
-      <c r="O16">
-        <v>0.05454595453344868</v>
-      </c>
-      <c r="P16">
-        <v>0.05454595453344868</v>
-      </c>
-      <c r="Q16">
-        <v>3.094369533895043</v>
-      </c>
-      <c r="R16">
-        <v>3.094369533895043</v>
-      </c>
-      <c r="S16">
-        <v>0.001071213410364152</v>
-      </c>
-      <c r="T16">
-        <v>0.001071213410364152</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.744584</v>
+      </c>
+      <c r="I24">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J24">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.60894133333333</v>
+      </c>
+      <c r="N24">
+        <v>94.826824</v>
+      </c>
+      <c r="O24">
+        <v>0.1247720181445143</v>
+      </c>
+      <c r="P24">
+        <v>0.1247720181445143</v>
+      </c>
+      <c r="Q24">
+        <v>7.845170657912889</v>
+      </c>
+      <c r="R24">
+        <v>70.60653592121601</v>
+      </c>
+      <c r="S24">
+        <v>0.002504532758900999</v>
+      </c>
+      <c r="T24">
+        <v>0.002504532758900999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.744584</v>
+      </c>
+      <c r="I25">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J25">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.77231833333333</v>
+      </c>
+      <c r="N25">
+        <v>98.31695499999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1293642914073912</v>
+      </c>
+      <c r="P25">
+        <v>0.1293642914073912</v>
+      </c>
+      <c r="Q25">
+        <v>8.133914624635555</v>
+      </c>
+      <c r="R25">
+        <v>73.20523162172</v>
+      </c>
+      <c r="S25">
+        <v>0.002596712872645565</v>
+      </c>
+      <c r="T25">
+        <v>0.002596712872645565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.744584</v>
+      </c>
+      <c r="I26">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J26">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.67461933333333</v>
+      </c>
+      <c r="N26">
+        <v>44.023858</v>
+      </c>
+      <c r="O26">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="P26">
+        <v>0.05792607384137975</v>
+      </c>
+      <c r="Q26">
+        <v>3.642162253896889</v>
+      </c>
+      <c r="R26">
+        <v>32.779460285072</v>
+      </c>
+      <c r="S26">
+        <v>0.001162742670093072</v>
+      </c>
+      <c r="T26">
+        <v>0.001162742670093072</v>
       </c>
     </row>
   </sheetData>
